--- a/BI project/Project Vente Excel/ventes_ecommerce_1000_lignes.xlsx
+++ b/BI project/Project Vente Excel/ventes_ecommerce_1000_lignes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndeye anta ka cisse\Documents\Projet_scolaire\BI project\Project Vente Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B1AED8-16A6-44E4-B975-F9821001C41C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70B6123-E3DD-4BBE-BE43-68197A222102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="LxOLvOCzqFrJg7GSf+PmWMFzVIzHY23W6hhfd7tWMF6d6+YmgdTEAd9SngA0DbiDmNGc2vAJ/vMEiGt7Pubb4A==" workbookSaltValue="n7PAb9LEH7PMiy2joNEtnQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -2189,31 +2189,7 @@
     <cellStyle name="Monétaire [0]" xfId="2" builtinId="7"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
     </dxf>
@@ -2236,13 +2212,13 @@
       <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -2267,8 +2243,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Style de segment 1" pivot="0" table="0" count="9" xr9:uid="{07BA8F3F-4CBC-4713-8D1B-D70CEF047C1A}">
-      <tableStyleElement type="wholeTable" dxfId="19"/>
-      <tableStyleElement type="headerRow" dxfId="18"/>
+      <tableStyleElement type="wholeTable" dxfId="11"/>
+      <tableStyleElement type="headerRow" dxfId="10"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -3256,16 +3232,16 @@
                 <c:formatCode>_-* #\ ##0.00\ [$€-40C]_-;\-* #\ ##0.00\ [$€-40C]_-;_-* "-"??\ [$€-40C]_-;_-@_-</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1599.6000000000001</c:v>
+                  <c:v>13021.959999999945</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>959.7600000000001</c:v>
+                  <c:v>11397.349999999953</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1199.7</c:v>
+                  <c:v>13097.059999999947</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>519.87</c:v>
+                  <c:v>6293.629999999981</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4417,13 +4393,13 @@
                 <c:formatCode>_-* #\ ##0.00\ [$€-40C]_-;\-* #\ ##0.00\ [$€-40C]_-;_-* "-"??\ [$€-40C]_-;_-@_-</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1359.66</c:v>
+                  <c:v>15086.73999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1319.67</c:v>
+                  <c:v>15341.339999999931</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1599.6000000000001</c:v>
+                  <c:v>13381.919999999944</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7080,7 +7056,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="r"/>
-            <a:t> 4 278,93 € </a:t>
+            <a:t> 43 810,00 € </a:t>
           </a:fld>
           <a:endParaRPr lang="fr-SN" sz="2000" b="1">
             <a:solidFill>
@@ -7286,7 +7262,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="r"/>
-            <a:t> 107 </a:t>
+            <a:t> 1 000 </a:t>
           </a:fld>
           <a:endParaRPr lang="fr-SN" sz="4400" b="1">
             <a:solidFill>
@@ -7504,7 +7480,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="r"/>
-            <a:t> 39,990 € </a:t>
+            <a:t> 43,810 € </a:t>
           </a:fld>
           <a:endParaRPr lang="fr-SN" sz="4000" b="1">
             <a:solidFill>
@@ -8352,8 +8328,8 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>116416</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="32" name="Produit">
@@ -8376,7 +8352,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -19758,6 +19734,283 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FBD83758-A1F6-4DE7-9B9E-1FCBE4E79E8B}" name="TOTAL CA" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="9">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="11">
+        <item x="6"/>
+        <item x="0"/>
+        <item x="9"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField dataField="1" numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="32">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Totale  CA " fld="5" baseField="0" baseItem="0" numFmtId="165"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="4">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2C3DBCF1-7101-4289-9ACA-6AD0898EE650}" name="par canal" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="10">
+  <location ref="C19:D22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="11">
+        <item x="6"/>
+        <item x="0"/>
+        <item x="9"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" numFmtId="1" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" numFmtId="2" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="32">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Somme de Prix_Unitaire (€)" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="5">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="6">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B6810E95-84A1-4D4C-B27C-E541CA20F315}" name="Reapart par categories" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="4">
   <location ref="E12:F15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
@@ -19842,7 +20095,7 @@
     <dataField name="Somme de Prix_Unitaire (€)" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="12">
+    <format dxfId="6">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -19869,23 +20122,23 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F54F0CFC-8E8C-4F2A-BB81-A30E4258AA25}" name="evalution par mois" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
   <location ref="A11:B15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="11">
-        <item h="1" x="6"/>
-        <item h="1" x="0"/>
-        <item h="1" x="9"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="9"/>
         <item x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="8"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item h="1" x="2"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -19971,7 +20224,7 @@
     <dataField name="Somme de Prix_Unitaire (€)" fld="5" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="3">
+    <format dxfId="7">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -19998,7 +20251,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3A998031-214A-49D7-9EBC-B7E0046F9DF9}" name="TOP 5 Produits" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" rowHeaderCaption="5produits plus vendus">
   <location ref="E3:F8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
@@ -20105,7 +20358,7 @@
     <dataField name="Somme de Prix_Unitaire (€)" fld="5" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="14">
+    <format dxfId="8">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -20141,23 +20394,23 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{86345448-75B5-4037-ABCA-15116AB4C62E}" name="Commande TT" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C3:C4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="9">
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0">
       <items count="11">
-        <item h="1" x="6"/>
-        <item h="1" x="0"/>
-        <item h="1" x="9"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="9"/>
         <item x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="8"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item h="1" x="2"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -20222,287 +20475,10 @@
     <dataField name="Totale Commande" fld="0" subtotal="count" baseField="0" baseItem="0" numFmtId="41"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="2">
+    <format dxfId="9">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FBD83758-A1F6-4DE7-9B9E-1FCBE4E79E8B}" name="TOTAL CA" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="9">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="11">
-        <item h="1" x="6"/>
-        <item h="1" x="0"/>
-        <item h="1" x="9"/>
-        <item x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="8"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField dataField="1" numFmtId="2" showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="32">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Totale  CA " fld="5" baseField="0" baseItem="0" numFmtId="165"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="1">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2C3DBCF1-7101-4289-9ACA-6AD0898EE650}" name="par canal" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="10">
-  <location ref="C19:D22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="9">
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0">
-      <items count="11">
-        <item h="1" x="6"/>
-        <item h="1" x="0"/>
-        <item h="1" x="9"/>
-        <item x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="8"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" numFmtId="1" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" numFmtId="2" outline="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0">
-      <items count="32">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Somme de Prix_Unitaire (€)" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="0">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="6">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -20615,16 +20591,16 @@
   <data>
     <tabular pivotCacheId="1053092577">
       <items count="10">
-        <i x="6"/>
-        <i x="0"/>
-        <i x="9"/>
+        <i x="6" s="1"/>
+        <i x="0" s="1"/>
+        <i x="9" s="1"/>
         <i x="3" s="1"/>
-        <i x="5"/>
-        <i x="4"/>
-        <i x="8"/>
-        <i x="1"/>
-        <i x="7"/>
-        <i x="2"/>
+        <i x="5" s="1"/>
+        <i x="4" s="1"/>
+        <i x="8" s="1"/>
+        <i x="1" s="1"/>
+        <i x="7" s="1"/>
+        <i x="2" s="1"/>
       </items>
     </tabular>
   </data>
@@ -44018,7 +43994,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.90625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.90625" bestFit="1" customWidth="1"/>
@@ -44029,17 +44005,17 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B1" s="22">
         <f>A2/C2</f>
-        <v>39.989999999999895</v>
+        <v>43.810000000000031</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="20">
         <f>GETPIVOTDATA("Prix_Unitaire (€)",$A$3)</f>
-        <v>4278.9299999999885</v>
+        <v>43810.000000000029</v>
       </c>
       <c r="C2" s="19">
         <f>GETPIVOTDATA("ID_Commande",$C$3)</f>
-        <v>107</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -44058,10 +44034,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="18">
-        <v>4278.9299999999885</v>
+        <v>43810.000000000029</v>
       </c>
       <c r="C4" s="17">
-        <v>107</v>
+        <v>1000</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>642</v>
@@ -44115,7 +44091,7 @@
         <v>659</v>
       </c>
       <c r="B12" s="18">
-        <v>1599.6000000000001</v>
+        <v>13021.959999999945</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>3</v>
@@ -44129,7 +44105,7 @@
         <v>660</v>
       </c>
       <c r="B13" s="18">
-        <v>959.7600000000001</v>
+        <v>11397.349999999953</v>
       </c>
       <c r="E13" t="s">
         <v>647</v>
@@ -44143,7 +44119,7 @@
         <v>661</v>
       </c>
       <c r="B14" s="18">
-        <v>1199.7</v>
+        <v>13097.059999999947</v>
       </c>
       <c r="E14" t="s">
         <v>648</v>
@@ -44157,7 +44133,7 @@
         <v>662</v>
       </c>
       <c r="B15" s="18">
-        <v>519.87</v>
+        <v>6293.629999999981</v>
       </c>
       <c r="E15" t="s">
         <v>646</v>
@@ -44179,7 +44155,7 @@
         <v>649</v>
       </c>
       <c r="D20" s="18">
-        <v>1359.66</v>
+        <v>15086.73999999994</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.35">
@@ -44187,7 +44163,7 @@
         <v>650</v>
       </c>
       <c r="D21" s="18">
-        <v>1319.67</v>
+        <v>15341.339999999931</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.35">
@@ -44195,7 +44171,7 @@
         <v>651</v>
       </c>
       <c r="D22" s="18">
-        <v>1599.6000000000001</v>
+        <v>13381.919999999944</v>
       </c>
     </row>
   </sheetData>
@@ -44210,7 +44186,7 @@
   </sheetPr>
   <dimension ref="C60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="46" workbookViewId="0">
       <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
